--- a/PC_Tracking_Matrix_ICD_2024_2025.xlsx
+++ b/PC_Tracking_Matrix_ICD_2024_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skave\OneDrive\Desktop\PC TARGETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{282C9F73-4E8A-4D24-AA82-196D6DAAA026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC81B6B-D177-494C-A375-B28E1C7D5732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>PC Target</t>
-  </si>
-  <si>
-    <t>Responsible Officer</t>
-  </si>
-  <si>
-    <t>Status of Achievement</t>
-  </si>
-  <si>
     <t>Evidence</t>
   </si>
   <si>
@@ -125,6 +116,15 @@
   </si>
   <si>
     <t xml:space="preserve">Reports and Folio Numbers provided </t>
+  </si>
+  <si>
+    <t>The PC Target</t>
+  </si>
+  <si>
+    <t>Responsible ICD Officer</t>
+  </si>
+  <si>
+    <t>Status of The PC Target</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,165 +507,165 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
